--- a/datasets/raw/BBDD_Hospitalizacion.xlsx
+++ b/datasets/raw/BBDD_Hospitalizacion.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ozi\ti\integrador_pry\datasets\raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ozi\ti\mod_integrador\datasets\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E176141-3223-40D4-AAAB-88F8CB80425D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5210FAEA-288C-4A3E-AC06-7FE6C37E046F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Datos" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Datos!$A$1:$T$569</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Datos!$A$1:$T$1</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -540,7 +540,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K5" sqref="K5"/>
+      <selection pane="bottomLeft" activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35755,6 +35755,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:T1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
@@ -35766,6 +35767,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C5EDAA94885D37438ECB2B19BB11C497" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9fbd510f1c5630446bfdf670e8e70c7f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2f732e0a-2be0-4fdc-ab49-d5ab1599db08" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a888079b46ab10c5f96dd192971d488f" ns2:_="">
     <xsd:import namespace="2f732e0a-2be0-4fdc-ab49-d5ab1599db08"/>
@@ -35903,12 +35910,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -35919,6 +35920,15 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C552E8F-0FC9-4289-A229-536FAE4C40A1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D3379B7-B9C7-4BBE-9A34-D602D0B558C9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -35936,15 +35946,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C552E8F-0FC9-4289-A229-536FAE4C40A1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{63EA9544-46F9-4D0C-8B23-39A6BC258684}">
   <ds:schemaRefs>
